--- a/persian/social/results/t1/stats.xlsx
+++ b/persian/social/results/t1/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Lessons\stanford_ner\persian\social\results\t1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68168355-64E4-4EC5-93A7-BA300EAC4182}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1F731C-F17E-439A-8B07-054C0D98A6B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{D439830B-73F4-4E93-86FD-2E2028B83F75}"/>
+    <workbookView xWindow="1500" yWindow="-30" windowWidth="21600" windowHeight="11385" xr2:uid="{D439830B-73F4-4E93-86FD-2E2028B83F75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>LOC</t>
   </si>
@@ -58,13 +58,37 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Baseline P</t>
+  </si>
+  <si>
+    <t>Baseline R</t>
+  </si>
+  <si>
+    <t>Baseline F1</t>
+  </si>
+  <si>
+    <t>ParsNER P</t>
+  </si>
+  <si>
+    <t>ParsNER R</t>
+  </si>
+  <si>
+    <t>ParsNER F1</t>
+  </si>
+  <si>
+    <t>Overall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +102,18 @@
       <name val="Source Code Pro"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -95,14 +131,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A7BEFB-0779-4FFE-B403-2F7B924C89E5}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A28" sqref="A28:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -453,8 +521,20 @@
       <c r="D2" s="1">
         <v>6309</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>B2*F3/B3</f>
+        <v>0.6608535564853556</v>
+      </c>
+      <c r="G2">
+        <f>C2*G3/C3</f>
+        <v>0.53492003589492587</v>
+      </c>
+      <c r="H2">
+        <f>2*F2*G2/(F2+G2)</f>
+        <v>0.59125541893387812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -467,8 +547,18 @@
       <c r="D3" s="1">
         <v>6609</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0.72</v>
+      </c>
+      <c r="G3">
+        <v>0.54110000000000003</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H25" si="0">2*F3*G3/(F3+G3)</f>
+        <v>0.61786059789073033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -481,8 +571,20 @@
       <c r="D4" s="1">
         <v>7273</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>B4*F3/B3</f>
+        <v>0.75333891213389115</v>
+      </c>
+      <c r="G4">
+        <f>C4*G3/C3</f>
+        <v>0.62311695219448526</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.68206799660434569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -491,15 +593,27 @@
         <v>70.843333333333334</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:D5" si="0">AVERAGE(C2:C4)/100</f>
+        <f t="shared" ref="C5:D5" si="1">AVERAGE(C2:C4)/100</f>
         <v>64.153333333333336</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67.303333333333327</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>AVERAGE(F2:F4)</f>
+        <v>0.71139748953974902</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(G2:G4)</f>
+        <v>0.56637899602980368</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.63065896180433945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -513,7 +627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -526,8 +640,20 @@
       <c r="D7" s="1">
         <v>6304</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f>B7*F8/B8</f>
+        <v>0.68640571536003003</v>
+      </c>
+      <c r="G7">
+        <f>C7*G8/C8</f>
+        <v>0.58187778492203823</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.62983431878234353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -540,8 +666,18 @@
       <c r="D8" s="1">
         <v>5735</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0.52759999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.62529999999999997</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.57231031312342784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -554,8 +690,20 @@
       <c r="D9" s="1">
         <v>6918</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f>B9*F8/B8</f>
+        <v>0.72915728520398559</v>
+      </c>
+      <c r="G9">
+        <f>C9*G8/C8</f>
+        <v>0.65666048866741678</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.6910126111023418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -564,15 +712,27 @@
         <v>65.3</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:D10" si="1">AVERAGE(C7:C9)/100</f>
+        <f t="shared" ref="C10:D10" si="2">AVERAGE(C7:C9)/100</f>
         <v>61.81</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63.19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>AVERAGE(F7:F9)</f>
+        <v>0.64772100018800527</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(G7:G9)</f>
+        <v>0.62127942452981832</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.63422473691001924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -586,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -599,8 +759,20 @@
       <c r="D12" s="1">
         <v>6544</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>B12*F13/B13</f>
+        <v>0.82140461128683195</v>
+      </c>
+      <c r="G12">
+        <f>C12*G13/C13</f>
+        <v>0.53218185799186735</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.64589391534130158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -613,8 +785,18 @@
       <c r="D13" s="1">
         <v>6195</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0.59989999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.62619999999999998</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.61276793083761516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -627,8 +809,20 @@
       <c r="D14" s="1">
         <v>6495</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>B14*F13/B13</f>
+        <v>0.74071221907774265</v>
+      </c>
+      <c r="G14">
+        <f>C14*G13/C13</f>
+        <v>0.56577375664685636</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.64153085845321445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -637,15 +831,27 @@
         <v>72.163333333333327</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:D15" si="2">AVERAGE(C12:C14)/100</f>
+        <f t="shared" ref="C15:D15" si="3">AVERAGE(C12:C14)/100</f>
         <v>58.68333333333333</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64.11333333333333</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f>AVERAGE(F12:F14)</f>
+        <v>0.72067227678819157</v>
+      </c>
+      <c r="G15">
+        <f>AVERAGE(G12:G14)</f>
+        <v>0.57471853821290786</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.6394729878425548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -659,7 +865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -672,8 +878,20 @@
       <c r="D17" s="1">
         <v>6522</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f>B17*F18/B18</f>
+        <v>0.71663270508474586</v>
+      </c>
+      <c r="G17">
+        <f>C17*G18/C18</f>
+        <v>0.5256490433031219</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.60646032402290717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -686,8 +904,18 @@
       <c r="D18" s="1">
         <v>6591</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="G18">
+        <v>0.51090000000000002</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.61058486018117364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -700,8 +928,20 @@
       <c r="D19" s="1">
         <v>7184</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f>B19*F18/B18</f>
+        <v>0.73699918644067808</v>
+      </c>
+      <c r="G19">
+        <f>C19*G18/C18</f>
+        <v>0.61774481369587109</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.67212318353270628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -710,15 +950,27 @@
         <v>71.69</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:D20" si="3">AVERAGE(C17:C19)/100</f>
+        <f t="shared" ref="C20:D20" si="4">AVERAGE(C17:C19)/100</f>
         <v>64.306666666666672</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67.656666666666666</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f>AVERAGE(F17:F19)</f>
+        <v>0.73741063050847455</v>
+      </c>
+      <c r="G20">
+        <f>AVERAGE(G17:G19)</f>
+        <v>0.55143128566633104</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.63100258758213223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -732,7 +984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -745,8 +997,20 @@
       <c r="D22" s="1">
         <v>6415</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f>B22*F23/B23</f>
+        <v>0.71581622409326429</v>
+      </c>
+      <c r="G22">
+        <f>C22*G23/C23</f>
+        <v>0.54600924640955306</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0.61948706254780317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -759,8 +1023,18 @@
       <c r="D23" s="1">
         <v>6187</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="G23">
+        <v>0.58530000000000004</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0.5990683183183183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -773,8 +1047,20 @@
       <c r="D24" s="1">
         <v>6918</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f>B24*F23/B23</f>
+        <v>0.73071664507772016</v>
+      </c>
+      <c r="G24">
+        <f>C24*G23/C23</f>
+        <v>0.61656259480393738</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.66880352256466269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -783,12 +1069,163 @@
         <v>69.126666666666665</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:D25" si="4">AVERAGE(C22:C24)/100</f>
+        <f t="shared" ref="C25:D25" si="5">AVERAGE(C22:C24)/100</f>
         <v>61.686666666666667</v>
       </c>
       <c r="D25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.066666666666663</v>
+      </c>
+      <c r="F25">
+        <f>AVERAGE(F22:F24)</f>
+        <v>0.68667762305699487</v>
+      </c>
+      <c r="G25">
+        <f>AVERAGE(G22:G24)</f>
+        <v>0.58262394707116349</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0.63038577517952066</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4">
+        <v>71.13</v>
+      </c>
+      <c r="C29" s="4">
+        <v>56.63</v>
+      </c>
+      <c r="D29" s="4">
+        <v>63.07</v>
+      </c>
+      <c r="E29" s="4">
+        <v>70.84</v>
+      </c>
+      <c r="F29" s="4">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="G29" s="4">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4">
+        <v>64.77</v>
+      </c>
+      <c r="C30" s="4">
+        <v>62.13</v>
+      </c>
+      <c r="D30" s="4">
+        <v>63.42</v>
+      </c>
+      <c r="E30" s="4">
+        <v>65.3</v>
+      </c>
+      <c r="F30" s="4">
+        <v>61.81</v>
+      </c>
+      <c r="G30" s="4">
+        <v>63.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="4">
+        <v>72.069999999999993</v>
+      </c>
+      <c r="C31" s="4">
+        <v>57.47</v>
+      </c>
+      <c r="D31" s="4">
+        <v>63.94</v>
+      </c>
+      <c r="E31" s="4">
+        <v>72.16</v>
+      </c>
+      <c r="F31" s="4">
+        <v>58.68</v>
+      </c>
+      <c r="G31" s="4">
+        <v>64.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4">
+        <v>73.739999999999995</v>
+      </c>
+      <c r="C32" s="4">
+        <v>55.14</v>
+      </c>
+      <c r="D32" s="4">
+        <v>63.1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>71.69</v>
+      </c>
+      <c r="F32" s="4">
+        <v>64.31</v>
+      </c>
+      <c r="G32" s="4">
+        <v>67.66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="5">
+        <v>68.67</v>
+      </c>
+      <c r="C33" s="5">
+        <v>58.26</v>
+      </c>
+      <c r="D33" s="5">
+        <v>63.04</v>
+      </c>
+      <c r="E33" s="5">
+        <v>69.13</v>
+      </c>
+      <c r="F33" s="5">
+        <v>61.69</v>
+      </c>
+      <c r="G33" s="5">
+        <v>65.069999999999993</v>
       </c>
     </row>
   </sheetData>
